--- a/자작/BeatFighter/Sheets/MapTable.xlsx
+++ b/자작/BeatFighter/Sheets/MapTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665619D4-65EC-4793-B4D7-3F39F5DCB0C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395AC29F-87A6-4596-9316-B4772B1F6EB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$mapName$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$stage1$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +67,10 @@
   </si>
   <si>
     <t>튜토리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$fieldName$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +411,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -432,33 +432,33 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>30000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>40000</v>

--- a/자작/BeatFighter/Sheets/MapTable.xlsx
+++ b/자작/BeatFighter/Sheets/MapTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395AC29F-87A6-4596-9316-B4772B1F6EB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD6BB1B-5130-44E0-AC36-8D24F19231DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>$$MapTable$$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,15 +62,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GrassLand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>튜토리얼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$fieldName$</t>
+    <t>$fieldID$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +407,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -432,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -452,13 +448,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>30000</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+      <c r="C3" s="1">
+        <v>1000</v>
       </c>
       <c r="D3" s="1">
         <v>40000</v>

--- a/자작/BeatFighter/Sheets/MapTable.xlsx
+++ b/자작/BeatFighter/Sheets/MapTable.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD6BB1B-5130-44E0-AC36-8D24F19231DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B4E6E0-C6AC-4871-828B-D3DE68062F35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MapTable" sheetId="1" r:id="rId1"/>
+    <sheet name="RewardTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MapTable!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RewardTable!$A$2:$L$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>$$MapTable$$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,7 +68,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$fieldID$</t>
+    <t>$$RewardTable$$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$rewardID$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$exp$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$gold$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$item0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$percent0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$item1$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$percent1$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$item2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$percent2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$character$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$percent3$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,13 +162,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -415,12 +467,12 @@
     <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -428,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -445,8 +497,11 @@
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -462,9 +517,93 @@
       <c r="E3" s="1">
         <v>40001</v>
       </c>
+      <c r="I3" s="1">
+        <v>60000</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{B37C45A4-7405-46A2-AF66-454784BF68F3}"/>
+  <autoFilter ref="A2:I2" xr:uid="{F0308A4E-3CAC-4939-8B08-B66CF80C0C4A}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79A10-B2BE-430A-82BA-4E45D924D9E7}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="15.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>60000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100</v>
+      </c>
+      <c r="K3" s="3">
+        <v>10001</v>
+      </c>
+      <c r="L3" s="3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:L2" xr:uid="{BD917B8A-8D1B-44FA-8D05-182613EA9AA6}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/자작/BeatFighter/Sheets/MapTable.xlsx
+++ b/자작/BeatFighter/Sheets/MapTable.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B4E6E0-C6AC-4871-828B-D3DE68062F35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3890E09C-C00E-4A72-900B-BD0E89440A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapTable" sheetId="1" r:id="rId1"/>
-    <sheet name="RewardTable" sheetId="2" r:id="rId2"/>
+    <sheet name="StageTable" sheetId="3" r:id="rId2"/>
+    <sheet name="RewardTable" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MapTable!$A$2:$I$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RewardTable!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RewardTable!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">StageTable!$A$2:$L$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>$$MapTable$$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +115,54 @@
   </si>
   <si>
     <t>$percent3$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$fieldID$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$mob5Level$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$mob5$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$mob4Level$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$mob4$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$mob3Level$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$mob3$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$mob2Level$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$mob2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$mob1Level$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$mob1$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$StageTable$$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -506,19 +556,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
+        <v>11000</v>
       </c>
       <c r="D3" s="1">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="E3" s="1">
-        <v>40001</v>
+        <v>60001</v>
       </c>
       <c r="I3" s="1">
-        <v>60000</v>
+        <v>70000</v>
       </c>
     </row>
   </sheetData>
@@ -530,11 +580,115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43040013-AC15-4015-9274-47813F16896B}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="15.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>60000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>60001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:L2" xr:uid="{A0A400F0-BE5F-44A9-9C9C-88BC0AE6B691}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79A10-B2BE-430A-82BA-4E45D924D9E7}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -590,13 +744,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="C3" s="3">
         <v>100</v>
       </c>
       <c r="K3" s="3">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="L3" s="3">
         <v>100</v>

--- a/자작/BeatFighter/Sheets/MapTable.xlsx
+++ b/자작/BeatFighter/Sheets/MapTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3890E09C-C00E-4A72-900B-BD0E89440A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E3A71-5FF9-4C2A-8291-1020CEF14815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapTable" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -533,22 +533,22 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -562,17 +562,17 @@
         <v>11000</v>
       </c>
       <c r="D3" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E3" s="1">
         <v>60000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>60001</v>
       </c>
-      <c r="I3" s="1">
-        <v>70000</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I2" xr:uid="{F0308A4E-3CAC-4939-8B08-B66CF80C0C4A}"/>
+  <autoFilter ref="A2:I2" xr:uid="{B089AF9E-FA8C-41FB-B4E4-3291B8FCB980}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -583,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43040013-AC15-4015-9274-47813F16896B}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/자작/BeatFighter/Sheets/MapTable.xlsx
+++ b/자작/BeatFighter/Sheets/MapTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E3A71-5FF9-4C2A-8291-1020CEF14815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44F7ECE-E3EC-48E9-A8B8-760B7FD88358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapTable" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43040013-AC15-4015-9274-47813F16896B}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -648,6 +648,18 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
+      <c r="E3" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>30000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -656,20 +668,8 @@
       <c r="B4" s="1">
         <v>60001</v>
       </c>
-      <c r="C4" s="1">
-        <v>30000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>30000</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
       <c r="G4" s="1">
-        <v>30001</v>
+        <v>39000</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>

--- a/자작/BeatFighter/Sheets/MapTable.xlsx
+++ b/자작/BeatFighter/Sheets/MapTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44F7ECE-E3EC-48E9-A8B8-760B7FD88358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29272F6B-3FB2-4B39-92F2-215C83C90DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>$$MapTable$$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,14 @@
   </si>
   <si>
     <t>$$StageTable$$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3맵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,6 +178,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,6 +236,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -571,6 +585,49 @@
         <v>60001</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>70001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>60010</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1">
+        <v>50002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>70002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>60020</v>
+      </c>
+      <c r="F5" s="1">
+        <v>60021</v>
+      </c>
+      <c r="G5" s="1">
+        <v>60022</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:I2" xr:uid="{B089AF9E-FA8C-41FB-B4E4-3291B8FCB980}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -581,10 +638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43040013-AC15-4015-9274-47813F16896B}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -675,6 +732,172 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1">
+        <v>60010</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1">
+        <v>60011</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>30000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1">
+        <v>60020</v>
+      </c>
+      <c r="C7" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
+        <v>60021</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>30000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
+        <v>60022</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>30000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>30000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:L2" xr:uid="{A0A400F0-BE5F-44A9-9C9C-88BC0AE6B691}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -685,10 +908,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79A10-B2BE-430A-82BA-4E45D924D9E7}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -756,6 +979,28 @@
         <v>100</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3">
+        <v>70001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3">
+        <v>70002</v>
+      </c>
+      <c r="C5" s="3">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:L2" xr:uid="{BD917B8A-8D1B-44FA-8D05-182613EA9AA6}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/자작/BeatFighter/Sheets/MapTable.xlsx
+++ b/자작/BeatFighter/Sheets/MapTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29272F6B-3FB2-4B39-92F2-215C83C90DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3DACBB-86F3-4396-9C2C-3FF153D7AC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapTable" sheetId="1" r:id="rId1"/>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43040013-AC15-4015-9274-47813F16896B}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -699,18 +699,6 @@
       <c r="B3" s="1">
         <v>60000</v>
       </c>
-      <c r="C3" s="1">
-        <v>30000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>30000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
       <c r="G3" s="1">
         <v>30000</v>
       </c>
@@ -725,8 +713,20 @@
       <c r="B4" s="1">
         <v>60001</v>
       </c>
+      <c r="C4" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
       <c r="G4" s="1">
-        <v>39000</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -867,35 +867,11 @@
       <c r="B9" s="1">
         <v>60022</v>
       </c>
-      <c r="C9" s="1">
-        <v>30000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>30000</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5</v>
-      </c>
       <c r="G9" s="1">
-        <v>30000</v>
+        <v>39000</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
-      </c>
-      <c r="I9" s="1">
-        <v>30000</v>
-      </c>
-      <c r="J9" s="1">
-        <v>5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>30000</v>
-      </c>
-      <c r="L9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -910,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F79A10-B2BE-430A-82BA-4E45D924D9E7}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -972,12 +948,6 @@
       <c r="C3" s="3">
         <v>100</v>
       </c>
-      <c r="K3" s="3">
-        <v>20001</v>
-      </c>
-      <c r="L3" s="3">
-        <v>100</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -999,6 +969,12 @@
       </c>
       <c r="C5" s="3">
         <v>400</v>
+      </c>
+      <c r="K5" s="3">
+        <v>20001</v>
+      </c>
+      <c r="L5" s="3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
